--- a/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>SSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44377</v>
       </c>
       <c r="F7" s="2">
         <v>44286</v>
       </c>
       <c r="G7" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
-        <v>44012</v>
+        <v>43921</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -712,54 +712,60 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>323400</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>869700</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>373400</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>701400</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>256000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>532700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>230600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>448400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>165600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -770,25 +776,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>337000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>142800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>252900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>90500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +918,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>11600</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,28 +963,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>373300</v>
       </c>
       <c r="E17" s="3">
-        <v>2600</v>
+        <v>906100</v>
       </c>
       <c r="F17" s="3">
-        <v>1400</v>
+        <v>379300</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>719700</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
+        <v>275600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -967,28 +993,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-50000</v>
       </c>
       <c r="E18" s="3">
-        <v>-2600</v>
+        <v>-36400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1400</v>
+        <v>-5900</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-18400</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
+        <v>-19500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -996,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,28 +1041,29 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-8900</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>-7900</v>
       </c>
       <c r="F20" s="3">
-        <v>1800</v>
+        <v>-4400</v>
       </c>
       <c r="G20" s="3">
-        <v>-10800</v>
+        <v>-9200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+        <v>-3000</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1071,28 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-11000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1067,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,28 +1135,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4400</v>
+        <v>-58800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1300</v>
+        <v>-44300</v>
       </c>
       <c r="F23" s="3">
-        <v>300</v>
+        <v>-10300</v>
       </c>
       <c r="G23" s="3">
-        <v>-10900</v>
+        <v>-27500</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
+        <v>-22500</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1125,37 +1167,43 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-4400</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,28 +1231,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4400</v>
+        <v>-52300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1300</v>
+        <v>-45900</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>-12000</v>
       </c>
       <c r="G26" s="3">
-        <v>-10900</v>
+        <v>-25600</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
+        <v>-18200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1212,28 +1263,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4400</v>
+        <v>-52400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1300</v>
+        <v>-45900</v>
       </c>
       <c r="F27" s="3">
-        <v>300</v>
+        <v>-12600</v>
       </c>
       <c r="G27" s="3">
-        <v>-10900</v>
+        <v>-24700</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
+        <v>-16600</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1241,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,28 +1423,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>8900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1800</v>
+        <v>4400</v>
       </c>
       <c r="G32" s="3">
-        <v>10800</v>
+        <v>9200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1386,28 +1455,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4400</v>
+        <v>-52400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1300</v>
+        <v>-45900</v>
       </c>
       <c r="F33" s="3">
-        <v>300</v>
+        <v>-12600</v>
       </c>
       <c r="G33" s="3">
-        <v>-10900</v>
+        <v>-24700</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
+        <v>-16600</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1415,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,28 +1519,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4400</v>
+        <v>-52400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1300</v>
+        <v>-45900</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>-12600</v>
       </c>
       <c r="G35" s="3">
-        <v>-10900</v>
+        <v>-24700</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
+        <v>-16600</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1473,33 +1551,36 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
-      </c>
-      <c r="E38" s="2">
-        <v>44377</v>
       </c>
       <c r="F38" s="2">
         <v>44286</v>
       </c>
       <c r="G38" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
-        <v>44012</v>
+        <v>43921</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1507,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,25 +1618,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>55100</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>50600</v>
       </c>
       <c r="F41" s="3">
-        <v>800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1100</v>
+        <v>52900</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1562,115 +1648,127 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>11200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>26200</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>27600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>335600</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>181400</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>173600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>38400</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>33300</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+        <v>30600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1678,28 +1776,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>471500</v>
       </c>
       <c r="E46" s="3">
-        <v>700</v>
+        <v>315500</v>
       </c>
       <c r="F46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
+        <v>295900</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1707,25 +1808,28 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345000</v>
+        <v>5200</v>
       </c>
       <c r="E47" s="3">
-        <v>345000</v>
+        <v>1400</v>
       </c>
       <c r="F47" s="3">
-        <v>345000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>345000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>345000</v>
+        <v>1200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1736,66 +1840,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>132800</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>85100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>926600</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>326000</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>308700</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1968,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1872,8 +1991,8 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>200</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,28 +2032,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>345200</v>
+        <v>1536100</v>
       </c>
       <c r="E54" s="3">
-        <v>345700</v>
+        <v>741000</v>
       </c>
       <c r="F54" s="3">
-        <v>346100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>346300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>346400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
+        <v>690900</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,28 +2094,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>177900</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>102400</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+        <v>102000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1994,19 +2124,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>26800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2014,8 +2147,8 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2023,28 +2156,31 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>86900</v>
       </c>
       <c r="E59" s="3">
-        <v>3200</v>
+        <v>57400</v>
       </c>
       <c r="F59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
+        <v>48500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2052,28 +2188,31 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4100</v>
+        <v>305900</v>
       </c>
       <c r="E60" s="3">
-        <v>3500</v>
+        <v>187400</v>
       </c>
       <c r="F60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
+        <v>177300</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2081,19 +2220,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>241700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>157000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2110,25 +2252,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31500</v>
+        <v>62100</v>
       </c>
       <c r="E62" s="3">
-        <v>36900</v>
+        <v>41100</v>
       </c>
       <c r="F62" s="3">
-        <v>38200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>40000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>12100</v>
+        <v>40500</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,28 +2380,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35500</v>
+        <v>609700</v>
       </c>
       <c r="E66" s="3">
-        <v>40500</v>
+        <v>368500</v>
       </c>
       <c r="F66" s="3">
-        <v>39600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>40100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
+        <v>397000</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2255,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,28 +2554,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-35300</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-12000</v>
+        <v>351200</v>
       </c>
       <c r="F72" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-38800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
+        <v>276300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,28 +2682,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>309700</v>
+        <v>926400</v>
       </c>
       <c r="E76" s="3">
-        <v>305200</v>
+        <v>372400</v>
       </c>
       <c r="F76" s="3">
-        <v>306500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>306200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>334200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
+        <v>293900</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,33 +2746,36 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
-      </c>
-      <c r="E80" s="2">
-        <v>44377</v>
       </c>
       <c r="F80" s="2">
         <v>44286</v>
       </c>
       <c r="G80" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
-        <v>44012</v>
+        <v>43921</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2592,28 +2783,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4400</v>
+        <v>-52400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1300</v>
+        <v>-45900</v>
       </c>
       <c r="F81" s="3">
-        <v>300</v>
+        <v>-12600</v>
       </c>
       <c r="G81" s="3">
-        <v>-10900</v>
+        <v>-24700</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
+        <v>-16600</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2621,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>11600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,28 +3021,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-170200</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>-30200</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-4300</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-4200</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+        <v>-47000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2837,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-15700</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-24100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-26400</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-11900</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200700</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-31500</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-27900</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-13200</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,42 +3337,48 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>417500</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-27200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>19600</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>42000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3144,42 +3392,48 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-500</v>
+        <v>47000</v>
       </c>
       <c r="E102" s="3">
-        <v>-400</v>
+        <v>-44700</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>-42500</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>-12500</v>
       </c>
       <c r="H102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>-18200</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>323400</v>
+        <v>330900</v>
       </c>
       <c r="E8" s="3">
-        <v>869700</v>
+        <v>890100</v>
       </c>
       <c r="F8" s="3">
-        <v>373400</v>
+        <v>382200</v>
       </c>
       <c r="G8" s="3">
-        <v>701400</v>
+        <v>717800</v>
       </c>
       <c r="H8" s="3">
-        <v>256000</v>
+        <v>262000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -753,19 +753,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>208600</v>
+        <v>213400</v>
       </c>
       <c r="E9" s="3">
-        <v>532700</v>
+        <v>545200</v>
       </c>
       <c r="F9" s="3">
-        <v>230600</v>
+        <v>236000</v>
       </c>
       <c r="G9" s="3">
-        <v>448400</v>
+        <v>459000</v>
       </c>
       <c r="H9" s="3">
-        <v>165600</v>
+        <v>169500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>114800</v>
+        <v>117500</v>
       </c>
       <c r="E10" s="3">
-        <v>337000</v>
+        <v>344900</v>
       </c>
       <c r="F10" s="3">
-        <v>142800</v>
+        <v>146200</v>
       </c>
       <c r="G10" s="3">
-        <v>252900</v>
+        <v>258900</v>
       </c>
       <c r="H10" s="3">
-        <v>90500</v>
+        <v>92600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -927,19 +927,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="E15" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="F15" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="G15" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="H15" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -970,19 +970,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>373300</v>
+        <v>382100</v>
       </c>
       <c r="E17" s="3">
-        <v>906100</v>
+        <v>927400</v>
       </c>
       <c r="F17" s="3">
-        <v>379300</v>
+        <v>388200</v>
       </c>
       <c r="G17" s="3">
-        <v>719700</v>
+        <v>736600</v>
       </c>
       <c r="H17" s="3">
-        <v>275600</v>
+        <v>282000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50000</v>
+        <v>-51100</v>
       </c>
       <c r="E18" s="3">
-        <v>-36400</v>
+        <v>-37300</v>
       </c>
       <c r="F18" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="G18" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="H18" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1048,19 +1048,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E20" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="F20" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G20" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1080,19 +1080,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-34800</v>
+        <v>-35600</v>
       </c>
       <c r="E21" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="F21" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G21" s="3">
         <v>-2000</v>
       </c>
       <c r="H21" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-58800</v>
+        <v>-60200</v>
       </c>
       <c r="E23" s="3">
-        <v>-44300</v>
+        <v>-45300</v>
       </c>
       <c r="F23" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="G23" s="3">
-        <v>-27500</v>
+        <v>-28200</v>
       </c>
       <c r="H23" s="3">
-        <v>-22500</v>
+        <v>-23100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1176,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="E24" s="3">
         <v>1600</v>
@@ -1188,7 +1188,7 @@
         <v>-1900</v>
       </c>
       <c r="H24" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52300</v>
+        <v>-53500</v>
       </c>
       <c r="E26" s="3">
-        <v>-45900</v>
+        <v>-47000</v>
       </c>
       <c r="F26" s="3">
-        <v>-12000</v>
+        <v>-12200</v>
       </c>
       <c r="G26" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="H26" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1272,19 +1272,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52400</v>
+        <v>-53600</v>
       </c>
       <c r="E27" s="3">
-        <v>-45900</v>
+        <v>-47000</v>
       </c>
       <c r="F27" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="G27" s="3">
-        <v>-24700</v>
+        <v>-25300</v>
       </c>
       <c r="H27" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1432,19 +1432,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E32" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F32" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G32" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1464,19 +1464,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52400</v>
+        <v>-53600</v>
       </c>
       <c r="E33" s="3">
-        <v>-45900</v>
+        <v>-47000</v>
       </c>
       <c r="F33" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="G33" s="3">
-        <v>-24700</v>
+        <v>-25300</v>
       </c>
       <c r="H33" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1528,19 +1528,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52400</v>
+        <v>-53600</v>
       </c>
       <c r="E35" s="3">
-        <v>-45900</v>
+        <v>-47000</v>
       </c>
       <c r="F35" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="G35" s="3">
-        <v>-24700</v>
+        <v>-25300</v>
       </c>
       <c r="H35" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1625,13 +1625,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55100</v>
+        <v>56300</v>
       </c>
       <c r="E41" s="3">
-        <v>50600</v>
+        <v>51800</v>
       </c>
       <c r="F41" s="3">
-        <v>52900</v>
+        <v>54100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="E42" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="F42" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1689,13 +1689,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="E43" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="F43" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1721,13 +1721,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>335600</v>
+        <v>343500</v>
       </c>
       <c r="E44" s="3">
-        <v>181400</v>
+        <v>185700</v>
       </c>
       <c r="F44" s="3">
-        <v>173600</v>
+        <v>177700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1753,13 +1753,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38400</v>
+        <v>39300</v>
       </c>
       <c r="E45" s="3">
-        <v>33300</v>
+        <v>34100</v>
       </c>
       <c r="F45" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>471500</v>
+        <v>482500</v>
       </c>
       <c r="E46" s="3">
-        <v>315500</v>
+        <v>322900</v>
       </c>
       <c r="F46" s="3">
-        <v>295900</v>
+        <v>302900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1817,7 +1817,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E47" s="3">
         <v>1400</v>
@@ -1849,13 +1849,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>132800</v>
+        <v>135900</v>
       </c>
       <c r="E48" s="3">
-        <v>98000</v>
+        <v>100300</v>
       </c>
       <c r="F48" s="3">
-        <v>85100</v>
+        <v>87100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1881,13 +1881,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>926600</v>
+        <v>948300</v>
       </c>
       <c r="E49" s="3">
-        <v>326000</v>
+        <v>333600</v>
       </c>
       <c r="F49" s="3">
-        <v>308700</v>
+        <v>315900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2041,13 +2041,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1536100</v>
+        <v>1572100</v>
       </c>
       <c r="E54" s="3">
-        <v>741000</v>
+        <v>758400</v>
       </c>
       <c r="F54" s="3">
-        <v>690900</v>
+        <v>707100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2101,13 +2101,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177900</v>
+        <v>182100</v>
       </c>
       <c r="E57" s="3">
-        <v>102400</v>
+        <v>104800</v>
       </c>
       <c r="F57" s="3">
-        <v>102000</v>
+        <v>104400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2133,13 +2133,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41100</v>
+        <v>42100</v>
       </c>
       <c r="E58" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="F58" s="3">
-        <v>26800</v>
+        <v>27500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86900</v>
+        <v>88900</v>
       </c>
       <c r="E59" s="3">
-        <v>57400</v>
+        <v>58700</v>
       </c>
       <c r="F59" s="3">
-        <v>48500</v>
+        <v>49600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2197,13 +2197,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>305900</v>
+        <v>313100</v>
       </c>
       <c r="E60" s="3">
-        <v>187400</v>
+        <v>191800</v>
       </c>
       <c r="F60" s="3">
-        <v>177300</v>
+        <v>181500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2229,13 +2229,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>241700</v>
+        <v>247300</v>
       </c>
       <c r="E61" s="3">
-        <v>140000</v>
+        <v>143300</v>
       </c>
       <c r="F61" s="3">
-        <v>157000</v>
+        <v>160700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2261,13 +2261,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62100</v>
+        <v>63600</v>
       </c>
       <c r="E62" s="3">
-        <v>41100</v>
+        <v>42100</v>
       </c>
       <c r="F62" s="3">
-        <v>40500</v>
+        <v>41400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2389,13 +2389,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>609700</v>
+        <v>624000</v>
       </c>
       <c r="E66" s="3">
-        <v>368500</v>
+        <v>377200</v>
       </c>
       <c r="F66" s="3">
-        <v>397000</v>
+        <v>406300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2566,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>351200</v>
+        <v>359400</v>
       </c>
       <c r="F72" s="3">
-        <v>276300</v>
+        <v>282800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2691,13 +2691,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>926400</v>
+        <v>948100</v>
       </c>
       <c r="E76" s="3">
-        <v>372400</v>
+        <v>381200</v>
       </c>
       <c r="F76" s="3">
-        <v>293900</v>
+        <v>300800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2792,19 +2792,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52400</v>
+        <v>-53600</v>
       </c>
       <c r="E81" s="3">
-        <v>-45900</v>
+        <v>-47000</v>
       </c>
       <c r="F81" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="G81" s="3">
-        <v>-24700</v>
+        <v>-25300</v>
       </c>
       <c r="H81" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2838,19 +2838,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24000</v>
+        <v>24600</v>
       </c>
       <c r="E83" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="F83" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="G83" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="H83" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3030,19 +3030,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-170200</v>
+        <v>-174100</v>
       </c>
       <c r="E89" s="3">
-        <v>-30200</v>
+        <v>-30900</v>
       </c>
       <c r="F89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H89" s="3">
-        <v>-47000</v>
+        <v>-48100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3076,19 +3076,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15700</v>
+        <v>-16000</v>
       </c>
       <c r="E91" s="3">
-        <v>-24100</v>
+        <v>-24700</v>
       </c>
       <c r="F91" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="G91" s="3">
-        <v>-26400</v>
+        <v>-27100</v>
       </c>
       <c r="H91" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3172,19 +3172,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200700</v>
+        <v>-205400</v>
       </c>
       <c r="E94" s="3">
-        <v>-31500</v>
+        <v>-32300</v>
       </c>
       <c r="F94" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="G94" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="H94" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3346,19 +3346,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>417500</v>
+        <v>427300</v>
       </c>
       <c r="E100" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="F100" s="3">
-        <v>-27200</v>
+        <v>-27900</v>
       </c>
       <c r="G100" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="H100" s="3">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3410,19 +3410,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47000</v>
+        <v>48100</v>
       </c>
       <c r="E102" s="3">
-        <v>-44700</v>
+        <v>-45700</v>
       </c>
       <c r="F102" s="3">
-        <v>-42500</v>
+        <v>-43500</v>
       </c>
       <c r="G102" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="H102" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>330900</v>
+        <v>343000</v>
       </c>
       <c r="E8" s="3">
-        <v>890100</v>
+        <v>922600</v>
       </c>
       <c r="F8" s="3">
-        <v>382200</v>
+        <v>396100</v>
       </c>
       <c r="G8" s="3">
-        <v>717800</v>
+        <v>744000</v>
       </c>
       <c r="H8" s="3">
-        <v>262000</v>
+        <v>271600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -753,19 +753,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>213400</v>
+        <v>221200</v>
       </c>
       <c r="E9" s="3">
-        <v>545200</v>
+        <v>565100</v>
       </c>
       <c r="F9" s="3">
-        <v>236000</v>
+        <v>244600</v>
       </c>
       <c r="G9" s="3">
-        <v>459000</v>
+        <v>475700</v>
       </c>
       <c r="H9" s="3">
-        <v>169500</v>
+        <v>175600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>117500</v>
+        <v>121800</v>
       </c>
       <c r="E10" s="3">
-        <v>344900</v>
+        <v>357500</v>
       </c>
       <c r="F10" s="3">
-        <v>146200</v>
+        <v>151500</v>
       </c>
       <c r="G10" s="3">
-        <v>258900</v>
+        <v>268300</v>
       </c>
       <c r="H10" s="3">
-        <v>92600</v>
+        <v>96000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -927,19 +927,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="E15" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="F15" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="G15" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="H15" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -970,19 +970,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>382100</v>
+        <v>396000</v>
       </c>
       <c r="E17" s="3">
-        <v>927400</v>
+        <v>961200</v>
       </c>
       <c r="F17" s="3">
-        <v>388200</v>
+        <v>402400</v>
       </c>
       <c r="G17" s="3">
-        <v>736600</v>
+        <v>763500</v>
       </c>
       <c r="H17" s="3">
-        <v>282000</v>
+        <v>292300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-51100</v>
+        <v>-53000</v>
       </c>
       <c r="E18" s="3">
-        <v>-37300</v>
+        <v>-38600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="G18" s="3">
-        <v>-18800</v>
+        <v>-19500</v>
       </c>
       <c r="H18" s="3">
-        <v>-20000</v>
+        <v>-20700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1048,19 +1048,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9100</v>
+        <v>-9400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1080,19 +1080,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35600</v>
+        <v>-36900</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="F21" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G21" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H21" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-60200</v>
+        <v>-62400</v>
       </c>
       <c r="E23" s="3">
-        <v>-45300</v>
+        <v>-47000</v>
       </c>
       <c r="F23" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="G23" s="3">
-        <v>-28200</v>
+        <v>-29200</v>
       </c>
       <c r="H23" s="3">
-        <v>-23100</v>
+        <v>-23900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1176,19 +1176,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H24" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-53500</v>
+        <v>-55400</v>
       </c>
       <c r="E26" s="3">
-        <v>-47000</v>
+        <v>-48700</v>
       </c>
       <c r="F26" s="3">
-        <v>-12200</v>
+        <v>-12700</v>
       </c>
       <c r="G26" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="H26" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1272,19 +1272,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-53600</v>
+        <v>-55500</v>
       </c>
       <c r="E27" s="3">
-        <v>-47000</v>
+        <v>-48700</v>
       </c>
       <c r="F27" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="G27" s="3">
-        <v>-25300</v>
+        <v>-26200</v>
       </c>
       <c r="H27" s="3">
-        <v>-16900</v>
+        <v>-17600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1432,19 +1432,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E32" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="F32" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G32" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="H32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1464,19 +1464,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-53600</v>
+        <v>-55500</v>
       </c>
       <c r="E33" s="3">
-        <v>-47000</v>
+        <v>-48700</v>
       </c>
       <c r="F33" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="G33" s="3">
-        <v>-25300</v>
+        <v>-26200</v>
       </c>
       <c r="H33" s="3">
-        <v>-16900</v>
+        <v>-17600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1528,19 +1528,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-53600</v>
+        <v>-55500</v>
       </c>
       <c r="E35" s="3">
-        <v>-47000</v>
+        <v>-48700</v>
       </c>
       <c r="F35" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="G35" s="3">
-        <v>-25300</v>
+        <v>-26200</v>
       </c>
       <c r="H35" s="3">
-        <v>-16900</v>
+        <v>-17600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1625,13 +1625,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56300</v>
+        <v>58400</v>
       </c>
       <c r="E41" s="3">
-        <v>51800</v>
+        <v>53600</v>
       </c>
       <c r="F41" s="3">
-        <v>54100</v>
+        <v>56100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19300</v>
+        <v>20000</v>
       </c>
       <c r="E42" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="F42" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1689,13 +1689,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="E43" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="F43" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1721,13 +1721,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>343500</v>
+        <v>356000</v>
       </c>
       <c r="E44" s="3">
-        <v>185700</v>
+        <v>192500</v>
       </c>
       <c r="F44" s="3">
-        <v>177700</v>
+        <v>184200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1753,13 +1753,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39300</v>
+        <v>40700</v>
       </c>
       <c r="E45" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="F45" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>482500</v>
+        <v>500100</v>
       </c>
       <c r="E46" s="3">
-        <v>322900</v>
+        <v>334600</v>
       </c>
       <c r="F46" s="3">
-        <v>302900</v>
+        <v>313900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1817,13 +1817,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1849,13 +1849,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>135900</v>
+        <v>140800</v>
       </c>
       <c r="E48" s="3">
-        <v>100300</v>
+        <v>104000</v>
       </c>
       <c r="F48" s="3">
-        <v>87100</v>
+        <v>90200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1881,13 +1881,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>948300</v>
+        <v>982900</v>
       </c>
       <c r="E49" s="3">
-        <v>333600</v>
+        <v>345800</v>
       </c>
       <c r="F49" s="3">
-        <v>315900</v>
+        <v>327500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2041,13 +2041,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1572100</v>
+        <v>1629400</v>
       </c>
       <c r="E54" s="3">
-        <v>758400</v>
+        <v>786000</v>
       </c>
       <c r="F54" s="3">
-        <v>707100</v>
+        <v>732900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2101,13 +2101,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>182100</v>
+        <v>188700</v>
       </c>
       <c r="E57" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="F57" s="3">
-        <v>104400</v>
+        <v>108200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2133,13 +2133,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42100</v>
+        <v>43600</v>
       </c>
       <c r="E58" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="F58" s="3">
-        <v>27500</v>
+        <v>28500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88900</v>
+        <v>92200</v>
       </c>
       <c r="E59" s="3">
-        <v>58700</v>
+        <v>60800</v>
       </c>
       <c r="F59" s="3">
-        <v>49600</v>
+        <v>51400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2197,13 +2197,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>313100</v>
+        <v>324500</v>
       </c>
       <c r="E60" s="3">
-        <v>191800</v>
+        <v>198800</v>
       </c>
       <c r="F60" s="3">
-        <v>181500</v>
+        <v>188100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2229,13 +2229,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>247300</v>
+        <v>256400</v>
       </c>
       <c r="E61" s="3">
-        <v>143300</v>
+        <v>148500</v>
       </c>
       <c r="F61" s="3">
-        <v>160700</v>
+        <v>166500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2261,13 +2261,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63600</v>
+        <v>65900</v>
       </c>
       <c r="E62" s="3">
-        <v>42100</v>
+        <v>43600</v>
       </c>
       <c r="F62" s="3">
-        <v>41400</v>
+        <v>43000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2389,13 +2389,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>624000</v>
+        <v>646800</v>
       </c>
       <c r="E66" s="3">
-        <v>377200</v>
+        <v>390900</v>
       </c>
       <c r="F66" s="3">
-        <v>406300</v>
+        <v>421100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2566,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>359400</v>
+        <v>372500</v>
       </c>
       <c r="F72" s="3">
-        <v>282800</v>
+        <v>293100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2691,13 +2691,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>948100</v>
+        <v>982700</v>
       </c>
       <c r="E76" s="3">
-        <v>381200</v>
+        <v>395100</v>
       </c>
       <c r="F76" s="3">
-        <v>300800</v>
+        <v>311800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2792,19 +2792,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-53600</v>
+        <v>-55500</v>
       </c>
       <c r="E81" s="3">
-        <v>-47000</v>
+        <v>-48700</v>
       </c>
       <c r="F81" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="G81" s="3">
-        <v>-25300</v>
+        <v>-26200</v>
       </c>
       <c r="H81" s="3">
-        <v>-16900</v>
+        <v>-17600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2838,19 +2838,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="E83" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="F83" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="G83" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="H83" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3030,19 +3030,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-174100</v>
+        <v>-180500</v>
       </c>
       <c r="E89" s="3">
-        <v>-30900</v>
+        <v>-32100</v>
       </c>
       <c r="F89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H89" s="3">
-        <v>-48100</v>
+        <v>-49800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3076,19 +3076,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="F91" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="G91" s="3">
-        <v>-27100</v>
+        <v>-28000</v>
       </c>
       <c r="H91" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3172,19 +3172,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-205400</v>
+        <v>-212900</v>
       </c>
       <c r="E94" s="3">
-        <v>-32300</v>
+        <v>-33400</v>
       </c>
       <c r="F94" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="G94" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="H94" s="3">
-        <v>-13500</v>
+        <v>-14000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3346,19 +3346,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>427300</v>
+        <v>442900</v>
       </c>
       <c r="E100" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="F100" s="3">
-        <v>-27900</v>
+        <v>-28900</v>
       </c>
       <c r="G100" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="H100" s="3">
-        <v>43000</v>
+        <v>44500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3410,19 +3410,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48100</v>
+        <v>49800</v>
       </c>
       <c r="E102" s="3">
-        <v>-45700</v>
+        <v>-47400</v>
       </c>
       <c r="F102" s="3">
-        <v>-43500</v>
+        <v>-45100</v>
       </c>
       <c r="G102" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="H102" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>SSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>343000</v>
+        <v>1144500</v>
       </c>
       <c r="E8" s="3">
-        <v>922600</v>
+        <v>349100</v>
       </c>
       <c r="F8" s="3">
-        <v>396100</v>
+        <v>202900</v>
       </c>
       <c r="G8" s="3">
-        <v>744000</v>
+        <v>270200</v>
       </c>
       <c r="H8" s="3">
-        <v>271600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+        <v>403200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>694000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>276400</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>221200</v>
+        <v>754200</v>
       </c>
       <c r="E9" s="3">
-        <v>565100</v>
+        <v>225200</v>
       </c>
       <c r="F9" s="3">
-        <v>244600</v>
+        <v>129700</v>
       </c>
       <c r="G9" s="3">
-        <v>475700</v>
+        <v>160000</v>
       </c>
       <c r="H9" s="3">
-        <v>175600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>249000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>446800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>178800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -779,31 +787,34 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>121800</v>
+        <v>390400</v>
       </c>
       <c r="E10" s="3">
-        <v>357500</v>
+        <v>124000</v>
       </c>
       <c r="F10" s="3">
-        <v>151500</v>
+        <v>73200</v>
       </c>
       <c r="G10" s="3">
-        <v>268300</v>
+        <v>110200</v>
       </c>
       <c r="H10" s="3">
-        <v>96000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>154200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>247100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>97700</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -811,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,31 +907,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>274500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -921,40 +942,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17600</v>
+        <v>58000</v>
       </c>
       <c r="E15" s="3">
-        <v>32700</v>
+        <v>17900</v>
       </c>
       <c r="F15" s="3">
-        <v>15700</v>
+        <v>6600</v>
       </c>
       <c r="G15" s="3">
-        <v>27100</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+        <v>15900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>396000</v>
+        <v>1769100</v>
       </c>
       <c r="E17" s="3">
-        <v>961200</v>
+        <v>403100</v>
       </c>
       <c r="F17" s="3">
-        <v>402400</v>
+        <v>223800</v>
       </c>
       <c r="G17" s="3">
-        <v>763500</v>
+        <v>275600</v>
       </c>
       <c r="H17" s="3">
-        <v>292300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>409500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>709900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>297500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,31 +1024,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-53000</v>
+        <v>-624600</v>
       </c>
       <c r="E18" s="3">
-        <v>-38600</v>
+        <v>-54000</v>
       </c>
       <c r="F18" s="3">
-        <v>-6200</v>
+        <v>-20900</v>
       </c>
       <c r="G18" s="3">
-        <v>-19500</v>
+        <v>-5400</v>
       </c>
       <c r="H18" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,63 +1076,67 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9400</v>
+        <v>15200</v>
       </c>
       <c r="E20" s="3">
-        <v>-8400</v>
+        <v>-9600</v>
       </c>
       <c r="F20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36900</v>
+        <v>-276900</v>
       </c>
       <c r="E21" s="3">
-        <v>-14300</v>
+        <v>-37600</v>
       </c>
       <c r="F21" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H21" s="3">
         <v>4800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-11800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,31 +1179,34 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62400</v>
+        <v>-609400</v>
       </c>
       <c r="E23" s="3">
-        <v>-47000</v>
+        <v>-63500</v>
       </c>
       <c r="F23" s="3">
-        <v>-10900</v>
+        <v>-17100</v>
       </c>
       <c r="G23" s="3">
-        <v>-29200</v>
+        <v>-10800</v>
       </c>
       <c r="H23" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-11100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-24300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,40 +1214,46 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7000</v>
+        <v>28600</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>-7100</v>
       </c>
       <c r="F24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-55400</v>
+        <v>-638100</v>
       </c>
       <c r="E26" s="3">
-        <v>-48700</v>
+        <v>-56400</v>
       </c>
       <c r="F26" s="3">
-        <v>-12700</v>
+        <v>-13800</v>
       </c>
       <c r="G26" s="3">
-        <v>-27200</v>
+        <v>-14000</v>
       </c>
       <c r="H26" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-12900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-19600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1319,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-55500</v>
+        <v>-637600</v>
       </c>
       <c r="E27" s="3">
-        <v>-48700</v>
+        <v>-56500</v>
       </c>
       <c r="F27" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="G27" s="3">
-        <v>-26200</v>
+        <v>-13900</v>
       </c>
       <c r="H27" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-13600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-17900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,31 +1389,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>28400</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+        <v>-8900</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-5400</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1362,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,63 +1494,69 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9400</v>
+        <v>-15200</v>
       </c>
       <c r="E32" s="3">
-        <v>8400</v>
+        <v>9600</v>
       </c>
       <c r="F32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-55500</v>
+        <v>-609200</v>
       </c>
       <c r="E33" s="3">
-        <v>-48700</v>
+        <v>-56500</v>
       </c>
       <c r="F33" s="3">
-        <v>-13300</v>
+        <v>-22100</v>
       </c>
       <c r="G33" s="3">
-        <v>-26200</v>
+        <v>-13900</v>
       </c>
       <c r="H33" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-13600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-17900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-55500</v>
+        <v>-609200</v>
       </c>
       <c r="E35" s="3">
-        <v>-48700</v>
+        <v>-56500</v>
       </c>
       <c r="F35" s="3">
-        <v>-13300</v>
+        <v>-22100</v>
       </c>
       <c r="G35" s="3">
-        <v>-26200</v>
+        <v>-13900</v>
       </c>
       <c r="H35" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-13600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-17900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,19 +1706,20 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58400</v>
+        <v>46300</v>
       </c>
       <c r="E41" s="3">
-        <v>53600</v>
+        <v>59400</v>
       </c>
       <c r="F41" s="3">
-        <v>56100</v>
+        <v>54600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1651,19 +1739,22 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20000</v>
+        <v>21600</v>
       </c>
       <c r="E42" s="3">
-        <v>25400</v>
+        <v>20400</v>
       </c>
       <c r="F42" s="3">
-        <v>11800</v>
+        <v>25800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1677,25 +1768,28 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="E43" s="3">
-        <v>27800</v>
+        <v>25400</v>
       </c>
       <c r="F43" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1709,25 +1803,28 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>356000</v>
+        <v>322000</v>
       </c>
       <c r="E44" s="3">
-        <v>192500</v>
+        <v>362400</v>
       </c>
       <c r="F44" s="3">
-        <v>184200</v>
+        <v>195900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1741,25 +1838,28 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40700</v>
+        <v>55800</v>
       </c>
       <c r="E45" s="3">
-        <v>35300</v>
+        <v>41500</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1779,19 +1879,22 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500100</v>
+        <v>472800</v>
       </c>
       <c r="E46" s="3">
-        <v>334600</v>
+        <v>509100</v>
       </c>
       <c r="F46" s="3">
-        <v>313900</v>
+        <v>340600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1820,11 +1926,11 @@
         <v>5500</v>
       </c>
       <c r="E47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="F47" s="3">
-        <v>1300</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,19 +1949,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>140800</v>
+        <v>202600</v>
       </c>
       <c r="E48" s="3">
-        <v>104000</v>
+        <v>143300</v>
       </c>
       <c r="F48" s="3">
-        <v>90200</v>
+        <v>105900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1869,25 +1978,28 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>982900</v>
+        <v>729400</v>
       </c>
       <c r="E49" s="3">
-        <v>345800</v>
+        <v>1000400</v>
       </c>
       <c r="F49" s="3">
-        <v>327500</v>
+        <v>351900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1901,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,19 +2089,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,19 +2159,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1629400</v>
+        <v>1410200</v>
       </c>
       <c r="E54" s="3">
-        <v>786000</v>
+        <v>1658500</v>
       </c>
       <c r="F54" s="3">
-        <v>732900</v>
+        <v>800000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,19 +2226,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>188700</v>
+        <v>209900</v>
       </c>
       <c r="E57" s="3">
-        <v>108700</v>
+        <v>192100</v>
       </c>
       <c r="F57" s="3">
-        <v>108200</v>
+        <v>110600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2127,19 +2259,22 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43600</v>
+        <v>45700</v>
       </c>
       <c r="E58" s="3">
-        <v>29300</v>
+        <v>44400</v>
       </c>
       <c r="F58" s="3">
-        <v>28500</v>
+        <v>29800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2159,19 +2294,22 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92200</v>
+        <v>92400</v>
       </c>
       <c r="E59" s="3">
-        <v>60800</v>
+        <v>93800</v>
       </c>
       <c r="F59" s="3">
-        <v>51400</v>
+        <v>61900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2191,19 +2329,22 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>324500</v>
+        <v>347900</v>
       </c>
       <c r="E60" s="3">
-        <v>198800</v>
+        <v>330300</v>
       </c>
       <c r="F60" s="3">
-        <v>188100</v>
+        <v>202300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2223,19 +2364,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>256400</v>
+        <v>341600</v>
       </c>
       <c r="E61" s="3">
-        <v>148500</v>
+        <v>260900</v>
       </c>
       <c r="F61" s="3">
-        <v>166500</v>
+        <v>151200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2255,19 +2399,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65900</v>
+        <v>55900</v>
       </c>
       <c r="E62" s="3">
-        <v>43600</v>
+        <v>67100</v>
       </c>
       <c r="F62" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,19 +2539,22 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>646800</v>
+        <v>745400</v>
       </c>
       <c r="E66" s="3">
-        <v>390900</v>
+        <v>658300</v>
       </c>
       <c r="F66" s="3">
-        <v>421100</v>
+        <v>397900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,19 +2729,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3">
-        <v>372500</v>
+      <c r="D72" s="3">
+        <v>614700</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F72" s="3">
-        <v>293100</v>
+        <v>379200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,19 +2869,22 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>982700</v>
+        <v>664800</v>
       </c>
       <c r="E76" s="3">
-        <v>395100</v>
+        <v>1000200</v>
       </c>
       <c r="F76" s="3">
-        <v>311800</v>
+        <v>402100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2717,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-55500</v>
+        <v>-609200</v>
       </c>
       <c r="E81" s="3">
-        <v>-48700</v>
+        <v>-56500</v>
       </c>
       <c r="F81" s="3">
-        <v>-13300</v>
+        <v>-22100</v>
       </c>
       <c r="G81" s="3">
-        <v>-26200</v>
+        <v>-13900</v>
       </c>
       <c r="H81" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-13600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-17900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25500</v>
+        <v>332500</v>
       </c>
       <c r="E83" s="3">
-        <v>32700</v>
+        <v>26000</v>
       </c>
       <c r="F83" s="3">
-        <v>15700</v>
+        <v>9200</v>
       </c>
       <c r="G83" s="3">
-        <v>27100</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+        <v>15900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3239,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-180500</v>
+        <v>-205100</v>
       </c>
       <c r="E89" s="3">
-        <v>-32100</v>
+        <v>-183700</v>
       </c>
       <c r="F89" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>-50700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16600</v>
+        <v>-18800</v>
       </c>
       <c r="E91" s="3">
-        <v>-25600</v>
+        <v>-26700</v>
       </c>
       <c r="F91" s="3">
-        <v>-11600</v>
+        <v>-9900</v>
       </c>
       <c r="G91" s="3">
-        <v>-28000</v>
+        <v>-3300</v>
       </c>
       <c r="H91" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+        <v>-11000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212900</v>
+        <v>-256400</v>
       </c>
       <c r="E94" s="3">
-        <v>-33400</v>
+        <v>-216700</v>
       </c>
       <c r="F94" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-11600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-29600</v>
-      </c>
       <c r="H94" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+        <v>-11800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,49 +3584,55 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>442900</v>
+        <v>455300</v>
       </c>
       <c r="E100" s="3">
-        <v>18100</v>
+        <v>450800</v>
       </c>
       <c r="F100" s="3">
-        <v>-28900</v>
+        <v>19400</v>
       </c>
       <c r="G100" s="3">
-        <v>20800</v>
+        <v>28400</v>
       </c>
       <c r="H100" s="3">
-        <v>44500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+        <v>-29400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -3392,48 +3642,54 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49800</v>
+        <v>-8300</v>
       </c>
       <c r="E102" s="3">
-        <v>-47400</v>
+        <v>50700</v>
       </c>
       <c r="F102" s="3">
-        <v>-45100</v>
+        <v>-10400</v>
       </c>
       <c r="G102" s="3">
-        <v>-13200</v>
+        <v>8100</v>
       </c>
       <c r="H102" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-45900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-19600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>SSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1144500</v>
+        <v>478500</v>
       </c>
       <c r="E8" s="3">
-        <v>349100</v>
+        <v>278800</v>
       </c>
       <c r="F8" s="3">
-        <v>202900</v>
+        <v>351500</v>
       </c>
       <c r="G8" s="3">
-        <v>270200</v>
+        <v>521900</v>
       </c>
       <c r="H8" s="3">
-        <v>403200</v>
+        <v>204200</v>
       </c>
       <c r="I8" s="3">
-        <v>694000</v>
+        <v>272000</v>
       </c>
       <c r="J8" s="3">
+        <v>405900</v>
+      </c>
+      <c r="K8" s="3">
         <v>276400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>754200</v>
+        <v>376700</v>
       </c>
       <c r="E9" s="3">
-        <v>225200</v>
+        <v>202000</v>
       </c>
       <c r="F9" s="3">
-        <v>129700</v>
+        <v>226700</v>
       </c>
       <c r="G9" s="3">
-        <v>160000</v>
+        <v>330500</v>
       </c>
       <c r="H9" s="3">
-        <v>249000</v>
+        <v>130500</v>
       </c>
       <c r="I9" s="3">
-        <v>446800</v>
+        <v>161100</v>
       </c>
       <c r="J9" s="3">
+        <v>250600</v>
+      </c>
+      <c r="K9" s="3">
         <v>178800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>390400</v>
+        <v>101800</v>
       </c>
       <c r="E10" s="3">
-        <v>124000</v>
+        <v>76900</v>
       </c>
       <c r="F10" s="3">
-        <v>73200</v>
+        <v>124800</v>
       </c>
       <c r="G10" s="3">
-        <v>110200</v>
+        <v>191300</v>
       </c>
       <c r="H10" s="3">
-        <v>154200</v>
+        <v>73700</v>
       </c>
       <c r="I10" s="3">
-        <v>247100</v>
+        <v>110900</v>
       </c>
       <c r="J10" s="3">
+        <v>155200</v>
+      </c>
+      <c r="K10" s="3">
         <v>97700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,16 +926,19 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>274500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>276300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -936,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,43 +964,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>58000</v>
+        <v>29900</v>
       </c>
       <c r="E15" s="3">
-        <v>17900</v>
+        <v>16300</v>
       </c>
       <c r="F15" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H15" s="3">
         <v>6600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>8200</v>
       </c>
-      <c r="H15" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>26400</v>
-      </c>
       <c r="J15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1769100</v>
+        <v>662100</v>
       </c>
       <c r="E17" s="3">
-        <v>403100</v>
+        <v>613500</v>
       </c>
       <c r="F17" s="3">
-        <v>223800</v>
+        <v>405800</v>
       </c>
       <c r="G17" s="3">
-        <v>275600</v>
+        <v>761700</v>
       </c>
       <c r="H17" s="3">
-        <v>409500</v>
+        <v>225300</v>
       </c>
       <c r="I17" s="3">
-        <v>709900</v>
+        <v>277400</v>
       </c>
       <c r="J17" s="3">
+        <v>412300</v>
+      </c>
+      <c r="K17" s="3">
         <v>297500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-624600</v>
+        <v>-183500</v>
       </c>
       <c r="E18" s="3">
-        <v>-54000</v>
+        <v>-334700</v>
       </c>
       <c r="F18" s="3">
-        <v>-20900</v>
+        <v>-54300</v>
       </c>
       <c r="G18" s="3">
+        <v>-239800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,101 +1109,108 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15200</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-8300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-276900</v>
+        <v>-154400</v>
       </c>
       <c r="E21" s="3">
-        <v>-37600</v>
+        <v>-29600</v>
       </c>
       <c r="F21" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-8000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3300</v>
-      </c>
       <c r="J21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-11800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+        <v>14300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1182,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-609400</v>
+        <v>-198900</v>
       </c>
       <c r="E23" s="3">
-        <v>-63500</v>
+        <v>-322200</v>
       </c>
       <c r="F23" s="3">
-        <v>-17100</v>
+        <v>-64000</v>
       </c>
       <c r="G23" s="3">
+        <v>-227300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-10800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-24200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28600</v>
+        <v>-3300</v>
       </c>
       <c r="E24" s="3">
-        <v>-7100</v>
+        <v>44700</v>
       </c>
       <c r="F24" s="3">
-        <v>-3300</v>
+        <v>-7200</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>-8700</v>
       </c>
       <c r="H24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-638100</v>
+        <v>-195700</v>
       </c>
       <c r="E26" s="3">
-        <v>-56400</v>
+        <v>-366900</v>
       </c>
       <c r="F26" s="3">
-        <v>-13800</v>
+        <v>-56800</v>
       </c>
       <c r="G26" s="3">
-        <v>-14000</v>
+        <v>-218700</v>
       </c>
       <c r="H26" s="3">
-        <v>-12900</v>
+        <v>-13900</v>
       </c>
       <c r="I26" s="3">
-        <v>-22200</v>
+        <v>-14100</v>
       </c>
       <c r="J26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-19600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-637600</v>
+        <v>-195800</v>
       </c>
       <c r="E27" s="3">
-        <v>-56500</v>
+        <v>-366300</v>
       </c>
       <c r="F27" s="3">
-        <v>-13100</v>
+        <v>-56900</v>
       </c>
       <c r="G27" s="3">
-        <v>-13900</v>
+        <v>-218700</v>
       </c>
       <c r="H27" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="I27" s="3">
-        <v>-21400</v>
+        <v>-14000</v>
       </c>
       <c r="J27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,34 +1449,37 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>28400</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-8900</v>
+        <v>500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-5400</v>
+      <c r="H29" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15200</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F32" s="3">
         <v>9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5400</v>
       </c>
-      <c r="H32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8300</v>
-      </c>
       <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-609200</v>
+        <v>-195200</v>
       </c>
       <c r="E33" s="3">
-        <v>-56500</v>
+        <v>-337700</v>
       </c>
       <c r="F33" s="3">
-        <v>-22100</v>
+        <v>-56900</v>
       </c>
       <c r="G33" s="3">
-        <v>-13900</v>
+        <v>-218700</v>
       </c>
       <c r="H33" s="3">
-        <v>-13600</v>
+        <v>-22200</v>
       </c>
       <c r="I33" s="3">
-        <v>-26800</v>
+        <v>-14000</v>
       </c>
       <c r="J33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-609200</v>
+        <v>-195200</v>
       </c>
       <c r="E35" s="3">
-        <v>-56500</v>
+        <v>-337700</v>
       </c>
       <c r="F35" s="3">
-        <v>-22100</v>
+        <v>-56900</v>
       </c>
       <c r="G35" s="3">
-        <v>-13900</v>
+        <v>-218700</v>
       </c>
       <c r="H35" s="3">
-        <v>-13600</v>
+        <v>-22200</v>
       </c>
       <c r="I35" s="3">
-        <v>-26800</v>
+        <v>-14000</v>
       </c>
       <c r="J35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1792,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46300</v>
+        <v>38400</v>
       </c>
       <c r="E41" s="3">
-        <v>59400</v>
+        <v>46600</v>
       </c>
       <c r="F41" s="3">
-        <v>54600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>59800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>74400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>55000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1742,25 +1828,28 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21600</v>
+        <v>18600</v>
       </c>
       <c r="E42" s="3">
-        <v>20400</v>
+        <v>21800</v>
       </c>
       <c r="F42" s="3">
-        <v>25800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>26000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1771,31 +1860,34 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27000</v>
+        <v>30600</v>
       </c>
       <c r="E43" s="3">
-        <v>25400</v>
+        <v>27200</v>
       </c>
       <c r="F43" s="3">
-        <v>28300</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>25600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>28500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1806,31 +1898,34 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>322000</v>
+        <v>279000</v>
       </c>
       <c r="E44" s="3">
-        <v>362400</v>
+        <v>324100</v>
       </c>
       <c r="F44" s="3">
-        <v>195900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>364800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>340100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>197200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1841,31 +1936,34 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55800</v>
+        <v>54600</v>
       </c>
       <c r="E45" s="3">
-        <v>41500</v>
+        <v>56200</v>
       </c>
       <c r="F45" s="3">
-        <v>36000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>41700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>52000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>36200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1882,25 +1980,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>472800</v>
+        <v>421300</v>
       </c>
       <c r="E46" s="3">
-        <v>509100</v>
+        <v>475900</v>
       </c>
       <c r="F46" s="3">
-        <v>340600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>512500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>511200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>342900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1917,26 +2018,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,25 +2056,28 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>202600</v>
+        <v>191300</v>
       </c>
       <c r="E48" s="3">
-        <v>143300</v>
+        <v>203900</v>
       </c>
       <c r="F48" s="3">
-        <v>105900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>144300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>149300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>106600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1981,31 +2088,34 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>729400</v>
+        <v>731200</v>
       </c>
       <c r="E49" s="3">
-        <v>1000400</v>
+        <v>734300</v>
       </c>
       <c r="F49" s="3">
-        <v>351900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>1007100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1013900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>354300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,14 +2126,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,16 +2208,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
         <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2109,8 +2228,8 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2284,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1410200</v>
+        <v>1353900</v>
       </c>
       <c r="E54" s="3">
-        <v>1658500</v>
+        <v>1419600</v>
       </c>
       <c r="F54" s="3">
-        <v>800000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1669600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1677900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>805400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2356,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>209900</v>
+        <v>178100</v>
       </c>
       <c r="E57" s="3">
-        <v>192100</v>
+        <v>211300</v>
       </c>
       <c r="F57" s="3">
-        <v>110600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>193400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>166200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>111300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2262,25 +2392,28 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45700</v>
+        <v>28000</v>
       </c>
       <c r="E58" s="3">
-        <v>44400</v>
+        <v>46000</v>
       </c>
       <c r="F58" s="3">
-        <v>29800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>44700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>167900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>30000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2297,25 +2430,28 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92400</v>
+        <v>104500</v>
       </c>
       <c r="E59" s="3">
-        <v>93800</v>
+        <v>93000</v>
       </c>
       <c r="F59" s="3">
-        <v>61900</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>94400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>91200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>62300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2468,28 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>347900</v>
+        <v>310600</v>
       </c>
       <c r="E60" s="3">
-        <v>330300</v>
+        <v>350300</v>
       </c>
       <c r="F60" s="3">
-        <v>202300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>332500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>425300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>203700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2367,25 +2506,28 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>341600</v>
+        <v>351700</v>
       </c>
       <c r="E61" s="3">
-        <v>260900</v>
+        <v>343900</v>
       </c>
       <c r="F61" s="3">
-        <v>151200</v>
+        <v>262700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>114400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>152200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2402,25 +2544,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55900</v>
+        <v>212900</v>
       </c>
       <c r="E62" s="3">
-        <v>67100</v>
+        <v>56300</v>
       </c>
       <c r="F62" s="3">
-        <v>44400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>67500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>84200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>44700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2696,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>745400</v>
+        <v>875200</v>
       </c>
       <c r="E66" s="3">
-        <v>658300</v>
+        <v>750400</v>
       </c>
       <c r="F66" s="3">
-        <v>397900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>662700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>623900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>400600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +2902,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>614700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
-        <v>379200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>428300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>618800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1003700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>381700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3054,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>664800</v>
+        <v>478700</v>
       </c>
       <c r="E76" s="3">
-        <v>1000200</v>
+        <v>669200</v>
       </c>
       <c r="F76" s="3">
-        <v>402100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>1006900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>404800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-609200</v>
+        <v>-195200</v>
       </c>
       <c r="E81" s="3">
-        <v>-56500</v>
+        <v>-337700</v>
       </c>
       <c r="F81" s="3">
-        <v>-22100</v>
+        <v>-56900</v>
       </c>
       <c r="G81" s="3">
-        <v>-13900</v>
+        <v>-218700</v>
       </c>
       <c r="H81" s="3">
-        <v>-13600</v>
+        <v>-22200</v>
       </c>
       <c r="I81" s="3">
-        <v>-26800</v>
+        <v>-14000</v>
       </c>
       <c r="J81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332500</v>
+        <v>30200</v>
       </c>
       <c r="E83" s="3">
-        <v>26000</v>
+        <v>292600</v>
       </c>
       <c r="F83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8200</v>
       </c>
-      <c r="H83" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>27600</v>
-      </c>
       <c r="J83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-205100</v>
+        <v>-146400</v>
       </c>
       <c r="E89" s="3">
-        <v>-183700</v>
+        <v>-16900</v>
       </c>
       <c r="F89" s="3">
-        <v>-19300</v>
+        <v>-29200</v>
       </c>
       <c r="G89" s="3">
-        <v>-8700</v>
+        <v>-160400</v>
       </c>
       <c r="H89" s="3">
-        <v>-4600</v>
+        <v>-19400</v>
       </c>
       <c r="I89" s="3">
-        <v>-4500</v>
+        <v>-8800</v>
       </c>
       <c r="J89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-50700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-26700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-9900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-256400</v>
+        <v>-18100</v>
       </c>
       <c r="E94" s="3">
-        <v>-216700</v>
+        <v>-28100</v>
       </c>
       <c r="F94" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-206600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-10600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11800</v>
-      </c>
       <c r="I94" s="3">
-        <v>-30200</v>
+        <v>-11700</v>
       </c>
       <c r="J94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,55 +3829,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>455300</v>
+        <v>156800</v>
       </c>
       <c r="E100" s="3">
-        <v>450800</v>
+        <v>34100</v>
       </c>
       <c r="F100" s="3">
-        <v>19400</v>
+        <v>37800</v>
       </c>
       <c r="G100" s="3">
-        <v>28400</v>
+        <v>386400</v>
       </c>
       <c r="H100" s="3">
-        <v>-29400</v>
+        <v>19500</v>
       </c>
       <c r="I100" s="3">
-        <v>21200</v>
+        <v>28600</v>
       </c>
       <c r="J100" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K100" s="3">
         <v>45300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3648,48 +3896,54 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="E102" s="3">
-        <v>50700</v>
+        <v>-13200</v>
       </c>
       <c r="F102" s="3">
-        <v>-10400</v>
+        <v>-14400</v>
       </c>
       <c r="G102" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I102" s="3">
         <v>8100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-45900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-13500</v>
-      </c>
       <c r="J102" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-19600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
